--- a/RestAssuredTestCase1.xlsx
+++ b/RestAssuredTestCase1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>HTTP METHOD TYPE</t>
-  </si>
-  <si>
-    <t>VVK05</t>
-  </si>
-  <si>
-    <t>VVK06</t>
   </si>
   <si>
     <t>VVK07</t>
@@ -190,6 +184,44 @@
   </si>
   <si>
     <t>Authentication API</t>
+  </si>
+  <si>
+    <t>VVK005_GET_Request</t>
+  </si>
+  <si>
+    <t>VVK006_GET_Request</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/authentication/CheckForAuthentication</t>
+  </si>
+  <si>
+    <t>{
+“Faultid”: “OPERATION_SUCCESS”,
+“Faullt”: “Operation completed successfully”,
+"Username:Password":"ToolsQA:TestPassword",
+Authentication Type":"Basic"
+}</t>
+  </si>
+  <si>
+    <t>STATUS CODE : 200</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">username:ToolsQA
+Password:TestPassword
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URI not working</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -600,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,215 +680,227 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H5" s="4">
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="4">
         <v>201</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -873,8 +917,9 @@
     <hyperlink ref="C6" r:id="rId8"/>
     <hyperlink ref="E7" r:id="rId9"/>
     <hyperlink ref="E8" r:id="rId10"/>
+    <hyperlink ref="C9" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/RestAssuredTestCase1.xlsx
+++ b/RestAssuredTestCase1.xlsx
@@ -53,9 +53,6 @@
     <t>HTTP METHOD TYPE</t>
   </si>
   <si>
-    <t>VVK07</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
       </rPr>
       <t>URI not working</t>
     </r>
+  </si>
+  <si>
+    <t>VVK07_GET_Request_Autherization</t>
   </si>
 </sst>
 </file>
@@ -308,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -347,6 +347,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,226 +683,226 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="4">
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H6" s="4">
         <v>201</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/RestAssuredTestCase1.xlsx
+++ b/RestAssuredTestCase1.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="3708"/>
   </bookViews>
   <sheets>
-    <sheet name="Rest Assured - Test  Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Rest Assured - Test  Cases" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -222,6 +223,30 @@
   </si>
   <si>
     <t>VVK07_GET_Request_Autherization</t>
+  </si>
+  <si>
+    <t>EMPNAME</t>
+  </si>
+  <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t>TEST124</t>
+  </si>
+  <si>
+    <t>TEST125</t>
+  </si>
+  <si>
+    <t>TEST126</t>
+  </si>
+  <si>
+    <t>TEST127</t>
+  </si>
+  <si>
+    <t>EMPSAL</t>
+  </si>
+  <si>
+    <t>EMPAGE</t>
   </si>
 </sst>
 </file>
@@ -260,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,6 +382,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,9 +673,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="16">
+        <v>60000</v>
+      </c>
+      <c r="C3" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="16">
+        <v>70000</v>
+      </c>
+      <c r="C4" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="16">
+        <v>80000</v>
+      </c>
+      <c r="C5" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16">
+        <v>90000</v>
+      </c>
+      <c r="C6" s="16">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
